--- a/123.xlsx
+++ b/123.xlsx
@@ -512,168 +512,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>

--- a/123.xlsx
+++ b/123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="200">
   <si>
     <t>SLIPNO</t>
   </si>
@@ -160,6 +160,462 @@
   </si>
   <si>
     <t>658S108091</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t>a6</t>
+  </si>
+  <si>
+    <t>a7</t>
+  </si>
+  <si>
+    <t>a8</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>a13</t>
+  </si>
+  <si>
+    <t>a14</t>
+  </si>
+  <si>
+    <t>a15</t>
+  </si>
+  <si>
+    <t>a16</t>
+  </si>
+  <si>
+    <t>a17</t>
+  </si>
+  <si>
+    <t>a18</t>
+  </si>
+  <si>
+    <t>a19</t>
+  </si>
+  <si>
+    <t>a20</t>
+  </si>
+  <si>
+    <t>a21</t>
+  </si>
+  <si>
+    <t>a22</t>
+  </si>
+  <si>
+    <t>a23</t>
+  </si>
+  <si>
+    <t>a24</t>
+  </si>
+  <si>
+    <t>a25</t>
+  </si>
+  <si>
+    <t>a26</t>
+  </si>
+  <si>
+    <t>a27</t>
+  </si>
+  <si>
+    <t>a28</t>
+  </si>
+  <si>
+    <t>a29</t>
+  </si>
+  <si>
+    <t>a30</t>
+  </si>
+  <si>
+    <t>a31</t>
+  </si>
+  <si>
+    <t>a32</t>
+  </si>
+  <si>
+    <t>a33</t>
+  </si>
+  <si>
+    <t>a34</t>
+  </si>
+  <si>
+    <t>a35</t>
+  </si>
+  <si>
+    <t>a36</t>
+  </si>
+  <si>
+    <t>a37</t>
+  </si>
+  <si>
+    <t>a38</t>
+  </si>
+  <si>
+    <t>a39</t>
+  </si>
+  <si>
+    <t>a40</t>
+  </si>
+  <si>
+    <t>a41</t>
+  </si>
+  <si>
+    <t>a42</t>
+  </si>
+  <si>
+    <t>a43</t>
+  </si>
+  <si>
+    <t>a44</t>
+  </si>
+  <si>
+    <t>a45</t>
+  </si>
+  <si>
+    <t>a46</t>
+  </si>
+  <si>
+    <t>a47</t>
+  </si>
+  <si>
+    <t>a48</t>
+  </si>
+  <si>
+    <t>a49</t>
+  </si>
+  <si>
+    <t>a50</t>
+  </si>
+  <si>
+    <t>a51</t>
+  </si>
+  <si>
+    <t>a52</t>
+  </si>
+  <si>
+    <t>a53</t>
+  </si>
+  <si>
+    <t>a54</t>
+  </si>
+  <si>
+    <t>a55</t>
+  </si>
+  <si>
+    <t>a56</t>
+  </si>
+  <si>
+    <t>a57</t>
+  </si>
+  <si>
+    <t>a58</t>
+  </si>
+  <si>
+    <t>a59</t>
+  </si>
+  <si>
+    <t>a60</t>
+  </si>
+  <si>
+    <t>a61</t>
+  </si>
+  <si>
+    <t>a62</t>
+  </si>
+  <si>
+    <t>a63</t>
+  </si>
+  <si>
+    <t>a64</t>
+  </si>
+  <si>
+    <t>a65</t>
+  </si>
+  <si>
+    <t>a66</t>
+  </si>
+  <si>
+    <t>a67</t>
+  </si>
+  <si>
+    <t>a68</t>
+  </si>
+  <si>
+    <t>a69</t>
+  </si>
+  <si>
+    <t>a70</t>
+  </si>
+  <si>
+    <t>a71</t>
+  </si>
+  <si>
+    <t>a72</t>
+  </si>
+  <si>
+    <t>a73</t>
+  </si>
+  <si>
+    <t>a74</t>
+  </si>
+  <si>
+    <t>a75</t>
+  </si>
+  <si>
+    <t>a76</t>
+  </si>
+  <si>
+    <t>a77</t>
+  </si>
+  <si>
+    <t>a78</t>
+  </si>
+  <si>
+    <t>a79</t>
+  </si>
+  <si>
+    <t>a80</t>
+  </si>
+  <si>
+    <t>a81</t>
+  </si>
+  <si>
+    <t>a82</t>
+  </si>
+  <si>
+    <t>a83</t>
+  </si>
+  <si>
+    <t>a84</t>
+  </si>
+  <si>
+    <t>a85</t>
+  </si>
+  <si>
+    <t>a86</t>
+  </si>
+  <si>
+    <t>a87</t>
+  </si>
+  <si>
+    <t>a88</t>
+  </si>
+  <si>
+    <t>a89</t>
+  </si>
+  <si>
+    <t>a90</t>
+  </si>
+  <si>
+    <t>a91</t>
+  </si>
+  <si>
+    <t>a92</t>
+  </si>
+  <si>
+    <t>a93</t>
+  </si>
+  <si>
+    <t>a94</t>
+  </si>
+  <si>
+    <t>a95</t>
+  </si>
+  <si>
+    <t>a96</t>
+  </si>
+  <si>
+    <t>a97</t>
+  </si>
+  <si>
+    <t>a98</t>
+  </si>
+  <si>
+    <t>a99</t>
+  </si>
+  <si>
+    <t>a100</t>
+  </si>
+  <si>
+    <t>a101</t>
+  </si>
+  <si>
+    <t>a102</t>
+  </si>
+  <si>
+    <t>a103</t>
+  </si>
+  <si>
+    <t>a104</t>
+  </si>
+  <si>
+    <t>a105</t>
+  </si>
+  <si>
+    <t>a106</t>
+  </si>
+  <si>
+    <t>a107</t>
+  </si>
+  <si>
+    <t>a108</t>
+  </si>
+  <si>
+    <t>a109</t>
+  </si>
+  <si>
+    <t>a110</t>
+  </si>
+  <si>
+    <t>a111</t>
+  </si>
+  <si>
+    <t>a112</t>
+  </si>
+  <si>
+    <t>a113</t>
+  </si>
+  <si>
+    <t>a114</t>
+  </si>
+  <si>
+    <t>a115</t>
+  </si>
+  <si>
+    <t>a116</t>
+  </si>
+  <si>
+    <t>a117</t>
+  </si>
+  <si>
+    <t>a118</t>
+  </si>
+  <si>
+    <t>a119</t>
+  </si>
+  <si>
+    <t>a120</t>
+  </si>
+  <si>
+    <t>a121</t>
+  </si>
+  <si>
+    <t>a122</t>
+  </si>
+  <si>
+    <t>a123</t>
+  </si>
+  <si>
+    <t>a124</t>
+  </si>
+  <si>
+    <t>a125</t>
+  </si>
+  <si>
+    <t>a126</t>
+  </si>
+  <si>
+    <t>a127</t>
+  </si>
+  <si>
+    <t>a128</t>
+  </si>
+  <si>
+    <t>a129</t>
+  </si>
+  <si>
+    <t>a130</t>
+  </si>
+  <si>
+    <t>a131</t>
+  </si>
+  <si>
+    <t>a132</t>
+  </si>
+  <si>
+    <t>a133</t>
+  </si>
+  <si>
+    <t>a134</t>
+  </si>
+  <si>
+    <t>a135</t>
+  </si>
+  <si>
+    <t>a136</t>
+  </si>
+  <si>
+    <t>a137</t>
+  </si>
+  <si>
+    <t>a138</t>
+  </si>
+  <si>
+    <t>a139</t>
+  </si>
+  <si>
+    <t>a140</t>
+  </si>
+  <si>
+    <t>a141</t>
+  </si>
+  <si>
+    <t>a142</t>
+  </si>
+  <si>
+    <t>a143</t>
+  </si>
+  <si>
+    <t>a144</t>
+  </si>
+  <si>
+    <t>a145</t>
+  </si>
+  <si>
+    <t>a146</t>
+  </si>
+  <si>
+    <t>a147</t>
+  </si>
+  <si>
+    <t>a148</t>
+  </si>
+  <si>
+    <t>a149</t>
+  </si>
+  <si>
+    <t>a150</t>
+  </si>
+  <si>
+    <t>a151</t>
+  </si>
+  <si>
+    <t>a152</t>
   </si>
 </sst>
 </file>
@@ -515,10 +971,13 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -532,6 +991,12 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -540,6 +1005,12 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
       <c r="E3">
         <v>4</v>
       </c>
@@ -548,6 +1019,12 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
       <c r="E4">
         <v>5</v>
       </c>
@@ -556,6 +1033,12 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
       <c r="E5">
         <v>6</v>
       </c>
@@ -564,6 +1047,12 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
       <c r="E6">
         <v>7</v>
       </c>
@@ -572,6 +1061,12 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
       <c r="E7">
         <v>8</v>
       </c>
@@ -580,6 +1075,12 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
       <c r="E8">
         <v>9</v>
       </c>
@@ -588,6 +1089,12 @@
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
       <c r="E9">
         <v>10</v>
       </c>
@@ -596,6 +1103,12 @@
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
       <c r="E10">
         <v>11</v>
       </c>
@@ -604,6 +1117,12 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
       <c r="E11">
         <v>12</v>
       </c>
@@ -612,6 +1131,12 @@
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
       <c r="E12">
         <v>13</v>
       </c>
@@ -620,6 +1145,12 @@
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
       <c r="E13">
         <v>14</v>
       </c>
@@ -628,6 +1159,12 @@
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
       <c r="E14">
         <v>15</v>
       </c>
@@ -636,6 +1173,12 @@
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
       <c r="E15">
         <v>16</v>
       </c>
@@ -644,6 +1187,12 @@
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
       <c r="E16">
         <v>17</v>
       </c>
@@ -652,6 +1201,12 @@
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
       <c r="E17">
         <v>18</v>
       </c>
@@ -660,6 +1215,12 @@
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
       <c r="E18">
         <v>19</v>
       </c>
@@ -668,6 +1229,12 @@
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
       <c r="E19">
         <v>20</v>
       </c>
@@ -676,6 +1243,12 @@
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
       <c r="E20">
         <v>21</v>
       </c>
@@ -684,655 +1257,1441 @@
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>109</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>129</v>
+      </c>
+      <c r="C83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C85" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>138</v>
+      </c>
+      <c r="C92" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>141</v>
+      </c>
+      <c r="C95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>147</v>
+      </c>
+      <c r="C101" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>149</v>
+      </c>
+      <c r="C103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>157</v>
+      </c>
+      <c r="C111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>158</v>
+      </c>
+      <c r="C112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>159</v>
+      </c>
+      <c r="C113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C115" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>163</v>
+      </c>
+      <c r="C117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>167</v>
+      </c>
+      <c r="C121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>169</v>
+      </c>
+      <c r="C123" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>170</v>
+      </c>
+      <c r="C124" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>173</v>
+      </c>
+      <c r="C127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>174</v>
+      </c>
+      <c r="C128" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>176</v>
+      </c>
+      <c r="C130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>177</v>
+      </c>
+      <c r="C131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>180</v>
+      </c>
+      <c r="C134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>181</v>
+      </c>
+      <c r="C135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>182</v>
+      </c>
+      <c r="C136" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>183</v>
+      </c>
+      <c r="C137" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>184</v>
+      </c>
+      <c r="C138" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>185</v>
+      </c>
+      <c r="C139" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>187</v>
+      </c>
+      <c r="C141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>188</v>
+      </c>
+      <c r="C142" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>189</v>
+      </c>
+      <c r="C143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>190</v>
+      </c>
+      <c r="C144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>191</v>
+      </c>
+      <c r="C145" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>192</v>
+      </c>
+      <c r="C146" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>193</v>
+      </c>
+      <c r="C147" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>194</v>
+      </c>
+      <c r="C148" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>195</v>
+      </c>
+      <c r="C149" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>196</v>
+      </c>
+      <c r="C150" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="B151" t="s">
+        <v>197</v>
+      </c>
+      <c r="C151" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/123.xlsx
+++ b/123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="350">
   <si>
     <t>SLIPNO</t>
   </si>
@@ -616,6 +616,456 @@
   </si>
   <si>
     <t>a152</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>c6</t>
+  </si>
+  <si>
+    <t>c7</t>
+  </si>
+  <si>
+    <t>c8</t>
+  </si>
+  <si>
+    <t>c9</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>c15</t>
+  </si>
+  <si>
+    <t>c16</t>
+  </si>
+  <si>
+    <t>c17</t>
+  </si>
+  <si>
+    <t>c18</t>
+  </si>
+  <si>
+    <t>c19</t>
+  </si>
+  <si>
+    <t>c20</t>
+  </si>
+  <si>
+    <t>c21</t>
+  </si>
+  <si>
+    <t>c22</t>
+  </si>
+  <si>
+    <t>c23</t>
+  </si>
+  <si>
+    <t>c24</t>
+  </si>
+  <si>
+    <t>c25</t>
+  </si>
+  <si>
+    <t>c26</t>
+  </si>
+  <si>
+    <t>c27</t>
+  </si>
+  <si>
+    <t>c28</t>
+  </si>
+  <si>
+    <t>c29</t>
+  </si>
+  <si>
+    <t>c30</t>
+  </si>
+  <si>
+    <t>c31</t>
+  </si>
+  <si>
+    <t>c32</t>
+  </si>
+  <si>
+    <t>c33</t>
+  </si>
+  <si>
+    <t>c34</t>
+  </si>
+  <si>
+    <t>c35</t>
+  </si>
+  <si>
+    <t>c36</t>
+  </si>
+  <si>
+    <t>c37</t>
+  </si>
+  <si>
+    <t>c38</t>
+  </si>
+  <si>
+    <t>c39</t>
+  </si>
+  <si>
+    <t>c40</t>
+  </si>
+  <si>
+    <t>c41</t>
+  </si>
+  <si>
+    <t>c42</t>
+  </si>
+  <si>
+    <t>c43</t>
+  </si>
+  <si>
+    <t>c44</t>
+  </si>
+  <si>
+    <t>c45</t>
+  </si>
+  <si>
+    <t>c46</t>
+  </si>
+  <si>
+    <t>c47</t>
+  </si>
+  <si>
+    <t>c48</t>
+  </si>
+  <si>
+    <t>c49</t>
+  </si>
+  <si>
+    <t>c50</t>
+  </si>
+  <si>
+    <t>c51</t>
+  </si>
+  <si>
+    <t>c52</t>
+  </si>
+  <si>
+    <t>c53</t>
+  </si>
+  <si>
+    <t>c54</t>
+  </si>
+  <si>
+    <t>c55</t>
+  </si>
+  <si>
+    <t>c56</t>
+  </si>
+  <si>
+    <t>c57</t>
+  </si>
+  <si>
+    <t>c58</t>
+  </si>
+  <si>
+    <t>c59</t>
+  </si>
+  <si>
+    <t>c60</t>
+  </si>
+  <si>
+    <t>c61</t>
+  </si>
+  <si>
+    <t>c62</t>
+  </si>
+  <si>
+    <t>c63</t>
+  </si>
+  <si>
+    <t>c64</t>
+  </si>
+  <si>
+    <t>c65</t>
+  </si>
+  <si>
+    <t>c66</t>
+  </si>
+  <si>
+    <t>c67</t>
+  </si>
+  <si>
+    <t>c68</t>
+  </si>
+  <si>
+    <t>c69</t>
+  </si>
+  <si>
+    <t>c70</t>
+  </si>
+  <si>
+    <t>c71</t>
+  </si>
+  <si>
+    <t>c72</t>
+  </si>
+  <si>
+    <t>c73</t>
+  </si>
+  <si>
+    <t>c74</t>
+  </si>
+  <si>
+    <t>c75</t>
+  </si>
+  <si>
+    <t>c76</t>
+  </si>
+  <si>
+    <t>c77</t>
+  </si>
+  <si>
+    <t>c78</t>
+  </si>
+  <si>
+    <t>c79</t>
+  </si>
+  <si>
+    <t>c80</t>
+  </si>
+  <si>
+    <t>c81</t>
+  </si>
+  <si>
+    <t>c82</t>
+  </si>
+  <si>
+    <t>c83</t>
+  </si>
+  <si>
+    <t>c84</t>
+  </si>
+  <si>
+    <t>c85</t>
+  </si>
+  <si>
+    <t>c86</t>
+  </si>
+  <si>
+    <t>c87</t>
+  </si>
+  <si>
+    <t>c88</t>
+  </si>
+  <si>
+    <t>c89</t>
+  </si>
+  <si>
+    <t>c90</t>
+  </si>
+  <si>
+    <t>c91</t>
+  </si>
+  <si>
+    <t>c92</t>
+  </si>
+  <si>
+    <t>c93</t>
+  </si>
+  <si>
+    <t>c94</t>
+  </si>
+  <si>
+    <t>c95</t>
+  </si>
+  <si>
+    <t>c96</t>
+  </si>
+  <si>
+    <t>c97</t>
+  </si>
+  <si>
+    <t>c98</t>
+  </si>
+  <si>
+    <t>c99</t>
+  </si>
+  <si>
+    <t>c100</t>
+  </si>
+  <si>
+    <t>c101</t>
+  </si>
+  <si>
+    <t>c102</t>
+  </si>
+  <si>
+    <t>c103</t>
+  </si>
+  <si>
+    <t>c104</t>
+  </si>
+  <si>
+    <t>c105</t>
+  </si>
+  <si>
+    <t>c106</t>
+  </si>
+  <si>
+    <t>c107</t>
+  </si>
+  <si>
+    <t>c108</t>
+  </si>
+  <si>
+    <t>c109</t>
+  </si>
+  <si>
+    <t>c110</t>
+  </si>
+  <si>
+    <t>c111</t>
+  </si>
+  <si>
+    <t>c112</t>
+  </si>
+  <si>
+    <t>c113</t>
+  </si>
+  <si>
+    <t>c114</t>
+  </si>
+  <si>
+    <t>c115</t>
+  </si>
+  <si>
+    <t>c116</t>
+  </si>
+  <si>
+    <t>c117</t>
+  </si>
+  <si>
+    <t>c118</t>
+  </si>
+  <si>
+    <t>c119</t>
+  </si>
+  <si>
+    <t>c120</t>
+  </si>
+  <si>
+    <t>c121</t>
+  </si>
+  <si>
+    <t>c122</t>
+  </si>
+  <si>
+    <t>c123</t>
+  </si>
+  <si>
+    <t>c124</t>
+  </si>
+  <si>
+    <t>c125</t>
+  </si>
+  <si>
+    <t>c126</t>
+  </si>
+  <si>
+    <t>c127</t>
+  </si>
+  <si>
+    <t>c128</t>
+  </si>
+  <si>
+    <t>c129</t>
+  </si>
+  <si>
+    <t>c130</t>
+  </si>
+  <si>
+    <t>c131</t>
+  </si>
+  <si>
+    <t>c132</t>
+  </si>
+  <si>
+    <t>c133</t>
+  </si>
+  <si>
+    <t>c134</t>
+  </si>
+  <si>
+    <t>c135</t>
+  </si>
+  <si>
+    <t>c136</t>
+  </si>
+  <si>
+    <t>c137</t>
+  </si>
+  <si>
+    <t>c138</t>
+  </si>
+  <si>
+    <t>c139</t>
+  </si>
+  <si>
+    <t>c140</t>
+  </si>
+  <si>
+    <t>c141</t>
+  </si>
+  <si>
+    <t>c142</t>
+  </si>
+  <si>
+    <t>c143</t>
+  </si>
+  <si>
+    <t>c144</t>
+  </si>
+  <si>
+    <t>c145</t>
+  </si>
+  <si>
+    <t>c146</t>
+  </si>
+  <si>
+    <t>c147</t>
+  </si>
+  <si>
+    <t>c148</t>
+  </si>
+  <si>
+    <t>c149</t>
+  </si>
+  <si>
+    <t>c150</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1421,7 @@
   <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2:D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,6 +1433,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
       <c r="E1">
         <v>2</v>
       </c>
@@ -997,6 +1456,9 @@
       <c r="C2" t="s">
         <v>50</v>
       </c>
+      <c r="D2" t="s">
+        <v>200</v>
+      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -1011,6 +1473,9 @@
       <c r="C3" t="s">
         <v>51</v>
       </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
       <c r="E3">
         <v>4</v>
       </c>
@@ -1025,6 +1490,9 @@
       <c r="C4" t="s">
         <v>52</v>
       </c>
+      <c r="D4" t="s">
+        <v>202</v>
+      </c>
       <c r="E4">
         <v>5</v>
       </c>
@@ -1039,6 +1507,9 @@
       <c r="C5" t="s">
         <v>53</v>
       </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
       <c r="E5">
         <v>6</v>
       </c>
@@ -1053,6 +1524,9 @@
       <c r="C6" t="s">
         <v>54</v>
       </c>
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
       <c r="E6">
         <v>7</v>
       </c>
@@ -1067,6 +1541,9 @@
       <c r="C7" t="s">
         <v>55</v>
       </c>
+      <c r="D7" t="s">
+        <v>205</v>
+      </c>
       <c r="E7">
         <v>8</v>
       </c>
@@ -1081,6 +1558,9 @@
       <c r="C8" t="s">
         <v>56</v>
       </c>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
       <c r="E8">
         <v>9</v>
       </c>
@@ -1095,6 +1575,9 @@
       <c r="C9" t="s">
         <v>57</v>
       </c>
+      <c r="D9" t="s">
+        <v>207</v>
+      </c>
       <c r="E9">
         <v>10</v>
       </c>
@@ -1109,6 +1592,9 @@
       <c r="C10" t="s">
         <v>58</v>
       </c>
+      <c r="D10" t="s">
+        <v>208</v>
+      </c>
       <c r="E10">
         <v>11</v>
       </c>
@@ -1123,6 +1609,9 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
+      <c r="D11" t="s">
+        <v>209</v>
+      </c>
       <c r="E11">
         <v>12</v>
       </c>
@@ -1137,6 +1626,9 @@
       <c r="C12" t="s">
         <v>60</v>
       </c>
+      <c r="D12" t="s">
+        <v>210</v>
+      </c>
       <c r="E12">
         <v>13</v>
       </c>
@@ -1151,6 +1643,9 @@
       <c r="C13" t="s">
         <v>61</v>
       </c>
+      <c r="D13" t="s">
+        <v>211</v>
+      </c>
       <c r="E13">
         <v>14</v>
       </c>
@@ -1165,6 +1660,9 @@
       <c r="C14" t="s">
         <v>62</v>
       </c>
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
       <c r="E14">
         <v>15</v>
       </c>
@@ -1179,6 +1677,9 @@
       <c r="C15" t="s">
         <v>63</v>
       </c>
+      <c r="D15" t="s">
+        <v>213</v>
+      </c>
       <c r="E15">
         <v>16</v>
       </c>
@@ -1193,6 +1694,9 @@
       <c r="C16" t="s">
         <v>64</v>
       </c>
+      <c r="D16" t="s">
+        <v>214</v>
+      </c>
       <c r="E16">
         <v>17</v>
       </c>
@@ -1207,6 +1711,9 @@
       <c r="C17" t="s">
         <v>65</v>
       </c>
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
       <c r="E17">
         <v>18</v>
       </c>
@@ -1221,6 +1728,9 @@
       <c r="C18" t="s">
         <v>66</v>
       </c>
+      <c r="D18" t="s">
+        <v>216</v>
+      </c>
       <c r="E18">
         <v>19</v>
       </c>
@@ -1235,6 +1745,9 @@
       <c r="C19" t="s">
         <v>67</v>
       </c>
+      <c r="D19" t="s">
+        <v>217</v>
+      </c>
       <c r="E19">
         <v>20</v>
       </c>
@@ -1249,6 +1762,9 @@
       <c r="C20" t="s">
         <v>68</v>
       </c>
+      <c r="D20" t="s">
+        <v>218</v>
+      </c>
       <c r="E20">
         <v>21</v>
       </c>
@@ -1263,6 +1779,9 @@
       <c r="C21" t="s">
         <v>69</v>
       </c>
+      <c r="D21" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -1274,6 +1793,9 @@
       <c r="C22" t="s">
         <v>70</v>
       </c>
+      <c r="D22" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1285,6 +1807,9 @@
       <c r="C23" t="s">
         <v>71</v>
       </c>
+      <c r="D23" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1296,6 +1821,9 @@
       <c r="C24" t="s">
         <v>72</v>
       </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
@@ -1307,6 +1835,9 @@
       <c r="C25" t="s">
         <v>73</v>
       </c>
+      <c r="D25" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -1318,6 +1849,9 @@
       <c r="C26" t="s">
         <v>74</v>
       </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1329,6 +1863,9 @@
       <c r="C27" t="s">
         <v>75</v>
       </c>
+      <c r="D27" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1340,6 +1877,9 @@
       <c r="C28" t="s">
         <v>76</v>
       </c>
+      <c r="D28" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -1351,6 +1891,9 @@
       <c r="C29" t="s">
         <v>77</v>
       </c>
+      <c r="D29" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -1362,6 +1905,9 @@
       <c r="C30" t="s">
         <v>78</v>
       </c>
+      <c r="D30" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -1373,6 +1919,9 @@
       <c r="C31" t="s">
         <v>79</v>
       </c>
+      <c r="D31" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1384,8 +1933,11 @@
       <c r="C32" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -1395,8 +1947,11 @@
       <c r="C33" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1406,8 +1961,11 @@
       <c r="C34" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
@@ -1417,8 +1975,11 @@
       <c r="C35" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -1428,8 +1989,11 @@
       <c r="C36" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1439,8 +2003,11 @@
       <c r="C37" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
@@ -1450,8 +2017,11 @@
       <c r="C38" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -1461,8 +2031,11 @@
       <c r="C39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -1472,8 +2045,11 @@
       <c r="C40" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -1483,8 +2059,11 @@
       <c r="C41" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
@@ -1494,8 +2073,11 @@
       <c r="C42" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
@@ -1505,8 +2087,11 @@
       <c r="C43" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -1516,8 +2101,11 @@
       <c r="C44" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
@@ -1527,8 +2115,11 @@
       <c r="C45" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>22</v>
       </c>
@@ -1538,8 +2129,11 @@
       <c r="C46" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
@@ -1549,8 +2143,11 @@
       <c r="C47" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
@@ -1560,8 +2157,11 @@
       <c r="C48" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
@@ -1571,8 +2171,11 @@
       <c r="C49" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>27</v>
       </c>
@@ -1582,8 +2185,11 @@
       <c r="C50" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>28</v>
       </c>
@@ -1593,8 +2199,11 @@
       <c r="C51" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
@@ -1604,8 +2213,11 @@
       <c r="C52" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -1615,8 +2227,11 @@
       <c r="C53" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>29</v>
       </c>
@@ -1626,8 +2241,11 @@
       <c r="C54" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
@@ -1637,8 +2255,11 @@
       <c r="C55" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -1648,8 +2269,11 @@
       <c r="C56" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
@@ -1659,8 +2283,11 @@
       <c r="C57" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -1670,8 +2297,11 @@
       <c r="C58" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>31</v>
       </c>
@@ -1681,8 +2311,11 @@
       <c r="C59" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
@@ -1692,8 +2325,11 @@
       <c r="C60" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
@@ -1703,8 +2339,11 @@
       <c r="C61" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>32</v>
       </c>
@@ -1714,8 +2353,11 @@
       <c r="C62" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
@@ -1725,8 +2367,11 @@
       <c r="C63" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
@@ -1736,8 +2381,11 @@
       <c r="C64" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -1747,8 +2395,11 @@
       <c r="C65" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -1758,8 +2409,11 @@
       <c r="C66" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
@@ -1769,8 +2423,11 @@
       <c r="C67" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
@@ -1780,8 +2437,11 @@
       <c r="C68" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
@@ -1791,8 +2451,11 @@
       <c r="C69" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -1802,8 +2465,11 @@
       <c r="C70" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>30</v>
       </c>
@@ -1813,8 +2479,11 @@
       <c r="C71" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>34</v>
       </c>
@@ -1824,8 +2493,11 @@
       <c r="C72" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
@@ -1835,8 +2507,11 @@
       <c r="C73" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>35</v>
       </c>
@@ -1846,8 +2521,11 @@
       <c r="C74" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
@@ -1857,8 +2535,11 @@
       <c r="C75" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
@@ -1868,8 +2549,11 @@
       <c r="C76" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>26</v>
       </c>
@@ -1879,8 +2563,11 @@
       <c r="C77" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>36</v>
       </c>
@@ -1890,8 +2577,11 @@
       <c r="C78" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>36</v>
       </c>
@@ -1901,8 +2591,11 @@
       <c r="C79" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>36</v>
       </c>
@@ -1912,8 +2605,11 @@
       <c r="C80" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
@@ -1923,8 +2619,11 @@
       <c r="C81" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
@@ -1934,8 +2633,11 @@
       <c r="C82" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>37</v>
       </c>
@@ -1945,8 +2647,11 @@
       <c r="C83" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
@@ -1956,8 +2661,11 @@
       <c r="C84" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>38</v>
       </c>
@@ -1967,8 +2675,11 @@
       <c r="C85" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>38</v>
       </c>
@@ -1978,8 +2689,11 @@
       <c r="C86" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
@@ -1989,8 +2703,11 @@
       <c r="C87" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>15</v>
       </c>
@@ -2000,8 +2717,11 @@
       <c r="C88" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
@@ -2011,8 +2731,11 @@
       <c r="C89" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>27</v>
       </c>
@@ -2022,8 +2745,11 @@
       <c r="C90" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
@@ -2033,8 +2759,11 @@
       <c r="C91" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>39</v>
       </c>
@@ -2044,8 +2773,11 @@
       <c r="C92" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>40</v>
       </c>
@@ -2055,8 +2787,11 @@
       <c r="C93" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
@@ -2066,8 +2801,11 @@
       <c r="C94" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>37</v>
       </c>
@@ -2077,8 +2815,11 @@
       <c r="C95" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>37</v>
       </c>
@@ -2088,8 +2829,11 @@
       <c r="C96" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>41</v>
       </c>
@@ -2099,8 +2843,11 @@
       <c r="C97" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>41</v>
       </c>
@@ -2110,8 +2857,11 @@
       <c r="C98" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>34</v>
       </c>
@@ -2121,8 +2871,11 @@
       <c r="C99" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>28</v>
       </c>
@@ -2132,8 +2885,11 @@
       <c r="C100" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>42</v>
       </c>
@@ -2143,8 +2899,11 @@
       <c r="C101" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>16</v>
       </c>
@@ -2154,8 +2913,11 @@
       <c r="C102" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>19</v>
       </c>
@@ -2165,8 +2927,11 @@
       <c r="C103" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -2176,8 +2941,11 @@
       <c r="C104" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>40</v>
       </c>
@@ -2187,8 +2955,11 @@
       <c r="C105" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>42</v>
       </c>
@@ -2198,8 +2969,11 @@
       <c r="C106" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>36</v>
       </c>
@@ -2209,8 +2983,11 @@
       <c r="C107" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>30</v>
       </c>
@@ -2220,8 +2997,11 @@
       <c r="C108" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>26</v>
       </c>
@@ -2231,8 +3011,11 @@
       <c r="C109" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>28</v>
       </c>
@@ -2242,8 +3025,11 @@
       <c r="C110" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
@@ -2253,8 +3039,11 @@
       <c r="C111" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
@@ -2264,8 +3053,11 @@
       <c r="C112" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>30</v>
       </c>
@@ -2275,8 +3067,11 @@
       <c r="C113" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +3081,11 @@
       <c r="C114" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>37</v>
       </c>
@@ -2297,8 +3095,11 @@
       <c r="C115" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>44</v>
       </c>
@@ -2308,8 +3109,11 @@
       <c r="C116" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
@@ -2319,8 +3123,11 @@
       <c r="C117" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>10</v>
       </c>
@@ -2330,8 +3137,11 @@
       <c r="C118" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>25</v>
       </c>
@@ -2341,8 +3151,11 @@
       <c r="C119" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>4</v>
       </c>
@@ -2352,8 +3165,11 @@
       <c r="C120" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>31</v>
       </c>
@@ -2363,8 +3179,11 @@
       <c r="C121" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
@@ -2374,8 +3193,11 @@
       <c r="C122" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>1</v>
       </c>
@@ -2385,8 +3207,11 @@
       <c r="C123" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>31</v>
       </c>
@@ -2396,8 +3221,11 @@
       <c r="C124" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>45</v>
       </c>
@@ -2407,8 +3235,11 @@
       <c r="C125" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>31</v>
       </c>
@@ -2418,8 +3249,11 @@
       <c r="C126" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>31</v>
       </c>
@@ -2429,8 +3263,11 @@
       <c r="C127" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
@@ -2440,8 +3277,11 @@
       <c r="C128" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>37</v>
       </c>
@@ -2451,8 +3291,11 @@
       <c r="C129" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>46</v>
       </c>
@@ -2462,8 +3305,11 @@
       <c r="C130" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>46</v>
       </c>
@@ -2473,8 +3319,11 @@
       <c r="C131" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
@@ -2484,8 +3333,11 @@
       <c r="C132" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>35</v>
       </c>
@@ -2495,8 +3347,11 @@
       <c r="C133" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>35</v>
       </c>
@@ -2506,8 +3361,11 @@
       <c r="C134" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>24</v>
       </c>
@@ -2517,8 +3375,11 @@
       <c r="C135" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>39</v>
       </c>
@@ -2528,8 +3389,11 @@
       <c r="C136" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>6</v>
       </c>
@@ -2539,8 +3403,11 @@
       <c r="C137" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>35</v>
       </c>
@@ -2550,8 +3417,11 @@
       <c r="C138" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>13</v>
       </c>
@@ -2561,8 +3431,11 @@
       <c r="C139" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>17</v>
       </c>
@@ -2572,8 +3445,11 @@
       <c r="C140" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>16</v>
       </c>
@@ -2583,8 +3459,11 @@
       <c r="C141" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>46</v>
       </c>
@@ -2594,8 +3473,11 @@
       <c r="C142" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>47</v>
       </c>
@@ -2605,8 +3487,11 @@
       <c r="C143" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>25</v>
       </c>
@@ -2616,8 +3501,11 @@
       <c r="C144" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>34</v>
       </c>
@@ -2627,8 +3515,11 @@
       <c r="C145" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>20</v>
       </c>
@@ -2638,8 +3529,11 @@
       <c r="C146" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>26</v>
       </c>
@@ -2649,8 +3543,11 @@
       <c r="C147" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +3557,11 @@
       <c r="C148" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>39</v>
       </c>
@@ -2671,8 +3571,11 @@
       <c r="C149" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>12</v>
       </c>
@@ -2682,8 +3585,11 @@
       <c r="C150" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>25</v>
       </c>
@@ -2692,6 +3598,9 @@
       </c>
       <c r="C151" t="s">
         <v>199</v>
+      </c>
+      <c r="D151" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/123.xlsx
+++ b/123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="351">
   <si>
     <t>SLIPNO</t>
   </si>
@@ -1066,6 +1066,9 @@
   </si>
   <si>
     <t>c150</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -1418,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D151"/>
+      <selection activeCell="F2" sqref="F2:F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1432,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1445,8 +1448,11 @@
       <c r="E1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1462,8 +1468,11 @@
       <c r="E2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1479,8 +1488,11 @@
       <c r="E3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1496,8 +1508,11 @@
       <c r="E4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1513,8 +1528,11 @@
       <c r="E5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1530,8 +1548,11 @@
       <c r="E6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1547,8 +1568,11 @@
       <c r="E7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1564,8 +1588,11 @@
       <c r="E8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1581,8 +1608,11 @@
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1598,8 +1628,11 @@
       <c r="E10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1615,8 +1648,11 @@
       <c r="E11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1632,8 +1668,11 @@
       <c r="E12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1649,8 +1688,11 @@
       <c r="E13">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1666,8 +1708,11 @@
       <c r="E14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1683,8 +1728,11 @@
       <c r="E15">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,8 +1748,11 @@
       <c r="E16">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1717,8 +1768,11 @@
       <c r="E17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1734,8 +1788,11 @@
       <c r="E18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1751,8 +1808,11 @@
       <c r="E19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1768,8 +1828,11 @@
       <c r="E20">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1782,8 +1845,11 @@
       <c r="D21" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1796,8 +1862,11 @@
       <c r="D22" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1810,8 +1879,11 @@
       <c r="D23" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1824,8 +1896,11 @@
       <c r="D24" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1838,8 +1913,11 @@
       <c r="D25" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -1852,8 +1930,11 @@
       <c r="D26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -1866,8 +1947,11 @@
       <c r="D27" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -1880,8 +1964,11 @@
       <c r="D28" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -1894,8 +1981,11 @@
       <c r="D29" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -1908,8 +1998,11 @@
       <c r="D30" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -1922,8 +2015,11 @@
       <c r="D31" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -1936,8 +2032,11 @@
       <c r="D32" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -1950,8 +2049,11 @@
       <c r="D33" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1964,8 +2066,11 @@
       <c r="D34" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
@@ -1978,8 +2083,11 @@
       <c r="D35" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -1992,8 +2100,11 @@
       <c r="D36" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -2006,8 +2117,11 @@
       <c r="D37" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
@@ -2020,8 +2134,11 @@
       <c r="D38" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -2034,8 +2151,11 @@
       <c r="D39" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -2048,8 +2168,11 @@
       <c r="D40" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2185,11 @@
       <c r="D41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
@@ -2076,8 +2202,11 @@
       <c r="D42" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
@@ -2090,8 +2219,11 @@
       <c r="D43" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -2104,8 +2236,11 @@
       <c r="D44" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
@@ -2118,8 +2253,11 @@
       <c r="D45" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>22</v>
       </c>
@@ -2132,8 +2270,11 @@
       <c r="D46" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
@@ -2146,8 +2287,11 @@
       <c r="D47" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
@@ -2160,8 +2304,11 @@
       <c r="D48" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
@@ -2174,8 +2321,11 @@
       <c r="D49" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>27</v>
       </c>
@@ -2188,8 +2338,11 @@
       <c r="D50" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>28</v>
       </c>
@@ -2202,8 +2355,11 @@
       <c r="D51" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
@@ -2216,8 +2372,11 @@
       <c r="D52" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -2230,8 +2389,11 @@
       <c r="D53" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>29</v>
       </c>
@@ -2244,8 +2406,11 @@
       <c r="D54" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
@@ -2258,8 +2423,11 @@
       <c r="D55" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -2272,8 +2440,11 @@
       <c r="D56" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2457,11 @@
       <c r="D57" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -2300,8 +2474,11 @@
       <c r="D58" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>31</v>
       </c>
@@ -2314,8 +2491,11 @@
       <c r="D59" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
@@ -2328,8 +2508,11 @@
       <c r="D60" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2342,8 +2525,11 @@
       <c r="D61" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>32</v>
       </c>
@@ -2356,8 +2542,11 @@
       <c r="D62" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2370,8 +2559,11 @@
       <c r="D63" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
@@ -2384,8 +2576,11 @@
       <c r="D64" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -2398,8 +2593,11 @@
       <c r="D65" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -2412,8 +2610,11 @@
       <c r="D66" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2426,8 +2627,11 @@
       <c r="D67" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
@@ -2440,8 +2644,11 @@
       <c r="D68" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
@@ -2454,8 +2661,11 @@
       <c r="D69" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -2468,8 +2678,11 @@
       <c r="D70" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>30</v>
       </c>
@@ -2482,8 +2695,11 @@
       <c r="D71" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>34</v>
       </c>
@@ -2496,8 +2712,11 @@
       <c r="D72" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
@@ -2510,8 +2729,11 @@
       <c r="D73" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>35</v>
       </c>
@@ -2524,8 +2746,11 @@
       <c r="D74" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
@@ -2538,8 +2763,11 @@
       <c r="D75" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
@@ -2552,8 +2780,11 @@
       <c r="D76" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>26</v>
       </c>
@@ -2566,8 +2797,11 @@
       <c r="D77" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>36</v>
       </c>
@@ -2580,8 +2814,11 @@
       <c r="D78" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>36</v>
       </c>
@@ -2594,8 +2831,11 @@
       <c r="D79" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>36</v>
       </c>
@@ -2608,8 +2848,11 @@
       <c r="D80" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
@@ -2622,8 +2865,11 @@
       <c r="D81" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2882,11 @@
       <c r="D82" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>37</v>
       </c>
@@ -2650,8 +2899,11 @@
       <c r="D83" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
@@ -2664,8 +2916,11 @@
       <c r="D84" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>38</v>
       </c>
@@ -2678,8 +2933,11 @@
       <c r="D85" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>38</v>
       </c>
@@ -2692,8 +2950,11 @@
       <c r="D86" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
@@ -2706,8 +2967,11 @@
       <c r="D87" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>15</v>
       </c>
@@ -2720,8 +2984,11 @@
       <c r="D88" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
@@ -2734,8 +3001,11 @@
       <c r="D89" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>27</v>
       </c>
@@ -2748,8 +3018,11 @@
       <c r="D90" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
@@ -2762,8 +3035,11 @@
       <c r="D91" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>39</v>
       </c>
@@ -2776,8 +3052,11 @@
       <c r="D92" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>40</v>
       </c>
@@ -2790,8 +3069,11 @@
       <c r="D93" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
@@ -2804,8 +3086,11 @@
       <c r="D94" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>37</v>
       </c>
@@ -2818,8 +3103,11 @@
       <c r="D95" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>37</v>
       </c>
@@ -2832,8 +3120,11 @@
       <c r="D96" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>41</v>
       </c>
@@ -2846,8 +3137,11 @@
       <c r="D97" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>41</v>
       </c>
@@ -2860,8 +3154,11 @@
       <c r="D98" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>34</v>
       </c>
@@ -2874,8 +3171,11 @@
       <c r="D99" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>28</v>
       </c>
@@ -2888,8 +3188,11 @@
       <c r="D100" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>42</v>
       </c>
@@ -2902,8 +3205,11 @@
       <c r="D101" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>16</v>
       </c>
@@ -2916,8 +3222,11 @@
       <c r="D102" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>19</v>
       </c>
@@ -2930,8 +3239,11 @@
       <c r="D103" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -2944,8 +3256,11 @@
       <c r="D104" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>40</v>
       </c>
@@ -2958,8 +3273,11 @@
       <c r="D105" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>42</v>
       </c>
@@ -2972,8 +3290,11 @@
       <c r="D106" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>36</v>
       </c>
@@ -2986,8 +3307,11 @@
       <c r="D107" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>30</v>
       </c>
@@ -3000,8 +3324,11 @@
       <c r="D108" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>26</v>
       </c>
@@ -3014,8 +3341,11 @@
       <c r="D109" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>28</v>
       </c>
@@ -3028,8 +3358,11 @@
       <c r="D110" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
@@ -3042,8 +3375,11 @@
       <c r="D111" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
@@ -3056,8 +3392,11 @@
       <c r="D112" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>30</v>
       </c>
@@ -3070,8 +3409,11 @@
       <c r="D113" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>43</v>
       </c>
@@ -3084,8 +3426,11 @@
       <c r="D114" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>37</v>
       </c>
@@ -3098,8 +3443,11 @@
       <c r="D115" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>44</v>
       </c>
@@ -3112,8 +3460,11 @@
       <c r="D116" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
@@ -3126,8 +3477,11 @@
       <c r="D117" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>10</v>
       </c>
@@ -3140,8 +3494,11 @@
       <c r="D118" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>25</v>
       </c>
@@ -3154,8 +3511,11 @@
       <c r="D119" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>4</v>
       </c>
@@ -3168,8 +3528,11 @@
       <c r="D120" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>31</v>
       </c>
@@ -3182,8 +3545,11 @@
       <c r="D121" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
@@ -3196,8 +3562,11 @@
       <c r="D122" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>1</v>
       </c>
@@ -3210,8 +3579,11 @@
       <c r="D123" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>31</v>
       </c>
@@ -3224,8 +3596,11 @@
       <c r="D124" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>45</v>
       </c>
@@ -3238,8 +3613,11 @@
       <c r="D125" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>31</v>
       </c>
@@ -3252,8 +3630,11 @@
       <c r="D126" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>31</v>
       </c>
@@ -3266,8 +3647,11 @@
       <c r="D127" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
@@ -3280,8 +3664,11 @@
       <c r="D128" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>37</v>
       </c>
@@ -3294,8 +3681,11 @@
       <c r="D129" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>46</v>
       </c>
@@ -3308,8 +3698,11 @@
       <c r="D130" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>46</v>
       </c>
@@ -3322,8 +3715,11 @@
       <c r="D131" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
@@ -3336,8 +3732,11 @@
       <c r="D132" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>35</v>
       </c>
@@ -3350,8 +3749,11 @@
       <c r="D133" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>35</v>
       </c>
@@ -3364,8 +3766,11 @@
       <c r="D134" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>24</v>
       </c>
@@ -3378,8 +3783,11 @@
       <c r="D135" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>39</v>
       </c>
@@ -3392,8 +3800,11 @@
       <c r="D136" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>6</v>
       </c>
@@ -3406,8 +3817,11 @@
       <c r="D137" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>35</v>
       </c>
@@ -3420,8 +3834,11 @@
       <c r="D138" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>13</v>
       </c>
@@ -3434,8 +3851,11 @@
       <c r="D139" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>17</v>
       </c>
@@ -3448,8 +3868,11 @@
       <c r="D140" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>16</v>
       </c>
@@ -3462,8 +3885,11 @@
       <c r="D141" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>46</v>
       </c>
@@ -3476,8 +3902,11 @@
       <c r="D142" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>47</v>
       </c>
@@ -3490,8 +3919,11 @@
       <c r="D143" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>25</v>
       </c>
@@ -3504,8 +3936,11 @@
       <c r="D144" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>34</v>
       </c>
@@ -3518,8 +3953,11 @@
       <c r="D145" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>20</v>
       </c>
@@ -3532,8 +3970,11 @@
       <c r="D146" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>26</v>
       </c>
@@ -3546,8 +3987,11 @@
       <c r="D147" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>20</v>
       </c>
@@ -3560,8 +4004,11 @@
       <c r="D148" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>39</v>
       </c>
@@ -3574,8 +4021,11 @@
       <c r="D149" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>12</v>
       </c>
@@ -3588,8 +4038,11 @@
       <c r="D150" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>25</v>
       </c>
@@ -3601,6 +4054,9 @@
       </c>
       <c r="D151" t="s">
         <v>349</v>
+      </c>
+      <c r="F151" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/123.xlsx
+++ b/123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="501">
   <si>
     <t>SLIPNO</t>
   </si>
@@ -1066,6 +1066,459 @@
   </si>
   <si>
     <t>c150</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>aaa1</t>
+  </si>
+  <si>
+    <t>aaa2</t>
+  </si>
+  <si>
+    <t>aaa3</t>
+  </si>
+  <si>
+    <t>aaa4</t>
+  </si>
+  <si>
+    <t>aaa5</t>
+  </si>
+  <si>
+    <t>aaa6</t>
+  </si>
+  <si>
+    <t>aaa7</t>
+  </si>
+  <si>
+    <t>aaa8</t>
+  </si>
+  <si>
+    <t>aaa9</t>
+  </si>
+  <si>
+    <t>aaa10</t>
+  </si>
+  <si>
+    <t>aaa11</t>
+  </si>
+  <si>
+    <t>aaa12</t>
+  </si>
+  <si>
+    <t>aaa13</t>
+  </si>
+  <si>
+    <t>aaa14</t>
+  </si>
+  <si>
+    <t>aaa15</t>
+  </si>
+  <si>
+    <t>aaa16</t>
+  </si>
+  <si>
+    <t>aaa17</t>
+  </si>
+  <si>
+    <t>aaa18</t>
+  </si>
+  <si>
+    <t>aaa19</t>
+  </si>
+  <si>
+    <t>aaa20</t>
+  </si>
+  <si>
+    <t>aaa21</t>
+  </si>
+  <si>
+    <t>aaa22</t>
+  </si>
+  <si>
+    <t>aaa23</t>
+  </si>
+  <si>
+    <t>aaa24</t>
+  </si>
+  <si>
+    <t>aaa25</t>
+  </si>
+  <si>
+    <t>aaa26</t>
+  </si>
+  <si>
+    <t>aaa27</t>
+  </si>
+  <si>
+    <t>aaa28</t>
+  </si>
+  <si>
+    <t>aaa29</t>
+  </si>
+  <si>
+    <t>aaa30</t>
+  </si>
+  <si>
+    <t>aaa31</t>
+  </si>
+  <si>
+    <t>aaa32</t>
+  </si>
+  <si>
+    <t>aaa33</t>
+  </si>
+  <si>
+    <t>aaa34</t>
+  </si>
+  <si>
+    <t>aaa35</t>
+  </si>
+  <si>
+    <t>aaa36</t>
+  </si>
+  <si>
+    <t>aaa37</t>
+  </si>
+  <si>
+    <t>aaa38</t>
+  </si>
+  <si>
+    <t>aaa39</t>
+  </si>
+  <si>
+    <t>aaa40</t>
+  </si>
+  <si>
+    <t>aaa41</t>
+  </si>
+  <si>
+    <t>aaa42</t>
+  </si>
+  <si>
+    <t>aaa43</t>
+  </si>
+  <si>
+    <t>aaa44</t>
+  </si>
+  <si>
+    <t>aaa45</t>
+  </si>
+  <si>
+    <t>aaa46</t>
+  </si>
+  <si>
+    <t>aaa47</t>
+  </si>
+  <si>
+    <t>aaa48</t>
+  </si>
+  <si>
+    <t>aaa49</t>
+  </si>
+  <si>
+    <t>aaa50</t>
+  </si>
+  <si>
+    <t>aaa51</t>
+  </si>
+  <si>
+    <t>aaa52</t>
+  </si>
+  <si>
+    <t>aaa53</t>
+  </si>
+  <si>
+    <t>aaa54</t>
+  </si>
+  <si>
+    <t>aaa55</t>
+  </si>
+  <si>
+    <t>aaa56</t>
+  </si>
+  <si>
+    <t>aaa57</t>
+  </si>
+  <si>
+    <t>aaa58</t>
+  </si>
+  <si>
+    <t>aaa59</t>
+  </si>
+  <si>
+    <t>aaa60</t>
+  </si>
+  <si>
+    <t>aaa61</t>
+  </si>
+  <si>
+    <t>aaa62</t>
+  </si>
+  <si>
+    <t>aaa63</t>
+  </si>
+  <si>
+    <t>aaa64</t>
+  </si>
+  <si>
+    <t>aaa65</t>
+  </si>
+  <si>
+    <t>aaa66</t>
+  </si>
+  <si>
+    <t>aaa67</t>
+  </si>
+  <si>
+    <t>aaa68</t>
+  </si>
+  <si>
+    <t>aaa69</t>
+  </si>
+  <si>
+    <t>aaa70</t>
+  </si>
+  <si>
+    <t>aaa71</t>
+  </si>
+  <si>
+    <t>aaa72</t>
+  </si>
+  <si>
+    <t>aaa73</t>
+  </si>
+  <si>
+    <t>aaa74</t>
+  </si>
+  <si>
+    <t>aaa75</t>
+  </si>
+  <si>
+    <t>aaa76</t>
+  </si>
+  <si>
+    <t>aaa77</t>
+  </si>
+  <si>
+    <t>aaa78</t>
+  </si>
+  <si>
+    <t>aaa79</t>
+  </si>
+  <si>
+    <t>aaa80</t>
+  </si>
+  <si>
+    <t>aaa81</t>
+  </si>
+  <si>
+    <t>aaa82</t>
+  </si>
+  <si>
+    <t>aaa83</t>
+  </si>
+  <si>
+    <t>aaa84</t>
+  </si>
+  <si>
+    <t>aaa85</t>
+  </si>
+  <si>
+    <t>aaa86</t>
+  </si>
+  <si>
+    <t>aaa87</t>
+  </si>
+  <si>
+    <t>aaa88</t>
+  </si>
+  <si>
+    <t>aaa89</t>
+  </si>
+  <si>
+    <t>aaa90</t>
+  </si>
+  <si>
+    <t>aaa91</t>
+  </si>
+  <si>
+    <t>aaa92</t>
+  </si>
+  <si>
+    <t>aaa93</t>
+  </si>
+  <si>
+    <t>aaa94</t>
+  </si>
+  <si>
+    <t>aaa95</t>
+  </si>
+  <si>
+    <t>aaa96</t>
+  </si>
+  <si>
+    <t>aaa97</t>
+  </si>
+  <si>
+    <t>aaa98</t>
+  </si>
+  <si>
+    <t>aaa99</t>
+  </si>
+  <si>
+    <t>aaa100</t>
+  </si>
+  <si>
+    <t>aaa101</t>
+  </si>
+  <si>
+    <t>aaa102</t>
+  </si>
+  <si>
+    <t>aaa103</t>
+  </si>
+  <si>
+    <t>aaa104</t>
+  </si>
+  <si>
+    <t>aaa105</t>
+  </si>
+  <si>
+    <t>aaa106</t>
+  </si>
+  <si>
+    <t>aaa107</t>
+  </si>
+  <si>
+    <t>aaa108</t>
+  </si>
+  <si>
+    <t>aaa109</t>
+  </si>
+  <si>
+    <t>aaa110</t>
+  </si>
+  <si>
+    <t>aaa111</t>
+  </si>
+  <si>
+    <t>aaa112</t>
+  </si>
+  <si>
+    <t>aaa113</t>
+  </si>
+  <si>
+    <t>aaa114</t>
+  </si>
+  <si>
+    <t>aaa115</t>
+  </si>
+  <si>
+    <t>aaa116</t>
+  </si>
+  <si>
+    <t>aaa117</t>
+  </si>
+  <si>
+    <t>aaa118</t>
+  </si>
+  <si>
+    <t>aaa119</t>
+  </si>
+  <si>
+    <t>aaa120</t>
+  </si>
+  <si>
+    <t>aaa121</t>
+  </si>
+  <si>
+    <t>aaa122</t>
+  </si>
+  <si>
+    <t>aaa123</t>
+  </si>
+  <si>
+    <t>aaa124</t>
+  </si>
+  <si>
+    <t>aaa125</t>
+  </si>
+  <si>
+    <t>aaa126</t>
+  </si>
+  <si>
+    <t>aaa127</t>
+  </si>
+  <si>
+    <t>aaa128</t>
+  </si>
+  <si>
+    <t>aaa129</t>
+  </si>
+  <si>
+    <t>aaa130</t>
+  </si>
+  <si>
+    <t>aaa131</t>
+  </si>
+  <si>
+    <t>aaa132</t>
+  </si>
+  <si>
+    <t>aaa133</t>
+  </si>
+  <si>
+    <t>aaa134</t>
+  </si>
+  <si>
+    <t>aaa135</t>
+  </si>
+  <si>
+    <t>aaa136</t>
+  </si>
+  <si>
+    <t>aaa137</t>
+  </si>
+  <si>
+    <t>aaa138</t>
+  </si>
+  <si>
+    <t>aaa139</t>
+  </si>
+  <si>
+    <t>aaa140</t>
+  </si>
+  <si>
+    <t>aaa141</t>
+  </si>
+  <si>
+    <t>aaa142</t>
+  </si>
+  <si>
+    <t>aaa143</t>
+  </si>
+  <si>
+    <t>aaa144</t>
+  </si>
+  <si>
+    <t>aaa145</t>
+  </si>
+  <si>
+    <t>aaa146</t>
+  </si>
+  <si>
+    <t>aaa147</t>
+  </si>
+  <si>
+    <t>aaa148</t>
+  </si>
+  <si>
+    <t>aaa149</t>
+  </si>
+  <si>
+    <t>aaa150</t>
   </si>
 </sst>
 </file>
@@ -1418,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D151"/>
+      <selection activeCell="F2" sqref="F2:F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,7 +1882,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1445,8 +1898,11 @@
       <c r="E1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1462,8 +1918,11 @@
       <c r="E2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1479,8 +1938,11 @@
       <c r="E3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1496,8 +1958,11 @@
       <c r="E4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1513,8 +1978,11 @@
       <c r="E5">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1530,8 +1998,11 @@
       <c r="E6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1547,8 +2018,11 @@
       <c r="E7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1564,8 +2038,11 @@
       <c r="E8">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1581,8 +2058,11 @@
       <c r="E9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1598,8 +2078,11 @@
       <c r="E10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1615,8 +2098,11 @@
       <c r="E11">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1632,8 +2118,11 @@
       <c r="E12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -1649,8 +2138,11 @@
       <c r="E13">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1666,8 +2158,11 @@
       <c r="E14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1683,8 +2178,11 @@
       <c r="E15">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1700,8 +2198,11 @@
       <c r="E16">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1717,8 +2218,11 @@
       <c r="E17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1734,8 +2238,11 @@
       <c r="E18">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1751,8 +2258,11 @@
       <c r="E19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -1768,8 +2278,11 @@
       <c r="E20">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1782,8 +2295,11 @@
       <c r="D21" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -1796,8 +2312,11 @@
       <c r="D22" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -1810,8 +2329,11 @@
       <c r="D23" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -1824,8 +2346,11 @@
       <c r="D24" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1838,8 +2363,11 @@
       <c r="D25" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -1852,8 +2380,11 @@
       <c r="D26" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -1866,8 +2397,11 @@
       <c r="D27" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -1880,8 +2414,11 @@
       <c r="D28" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -1894,8 +2431,11 @@
       <c r="D29" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -1908,8 +2448,11 @@
       <c r="D30" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -1922,8 +2465,11 @@
       <c r="D31" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -1936,8 +2482,11 @@
       <c r="D32" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -1950,8 +2499,11 @@
       <c r="D33" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1964,8 +2516,11 @@
       <c r="D34" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
@@ -1978,8 +2533,11 @@
       <c r="D35" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -1992,8 +2550,11 @@
       <c r="D36" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -2006,8 +2567,11 @@
       <c r="D37" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
@@ -2020,8 +2584,11 @@
       <c r="D38" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -2034,8 +2601,11 @@
       <c r="D39" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -2048,8 +2618,11 @@
       <c r="D40" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2635,11 @@
       <c r="D41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
@@ -2076,8 +2652,11 @@
       <c r="D42" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
@@ -2090,8 +2669,11 @@
       <c r="D43" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -2104,8 +2686,11 @@
       <c r="D44" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
@@ -2118,8 +2703,11 @@
       <c r="D45" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>22</v>
       </c>
@@ -2132,8 +2720,11 @@
       <c r="D46" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
@@ -2146,8 +2737,11 @@
       <c r="D47" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
@@ -2160,8 +2754,11 @@
       <c r="D48" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
@@ -2174,8 +2771,11 @@
       <c r="D49" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>27</v>
       </c>
@@ -2188,8 +2788,11 @@
       <c r="D50" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>28</v>
       </c>
@@ -2202,8 +2805,11 @@
       <c r="D51" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
@@ -2216,8 +2822,11 @@
       <c r="D52" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -2230,8 +2839,11 @@
       <c r="D53" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>29</v>
       </c>
@@ -2244,8 +2856,11 @@
       <c r="D54" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
@@ -2258,8 +2873,11 @@
       <c r="D55" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -2272,8 +2890,11 @@
       <c r="D56" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2907,11 @@
       <c r="D57" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -2300,8 +2924,11 @@
       <c r="D58" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>31</v>
       </c>
@@ -2314,8 +2941,11 @@
       <c r="D59" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
@@ -2328,8 +2958,11 @@
       <c r="D60" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2342,8 +2975,11 @@
       <c r="D61" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F61" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>32</v>
       </c>
@@ -2356,8 +2992,11 @@
       <c r="D62" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
@@ -2370,8 +3009,11 @@
       <c r="D63" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
@@ -2384,8 +3026,11 @@
       <c r="D64" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -2398,8 +3043,11 @@
       <c r="D65" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -2412,8 +3060,11 @@
       <c r="D66" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F66" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
@@ -2426,8 +3077,11 @@
       <c r="D67" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
@@ -2440,8 +3094,11 @@
       <c r="D68" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
@@ -2454,8 +3111,11 @@
       <c r="D69" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -2468,8 +3128,11 @@
       <c r="D70" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>30</v>
       </c>
@@ -2482,8 +3145,11 @@
       <c r="D71" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>34</v>
       </c>
@@ -2496,8 +3162,11 @@
       <c r="D72" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
@@ -2510,8 +3179,11 @@
       <c r="D73" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>35</v>
       </c>
@@ -2524,8 +3196,11 @@
       <c r="D74" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
@@ -2538,8 +3213,11 @@
       <c r="D75" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
@@ -2552,8 +3230,11 @@
       <c r="D76" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>26</v>
       </c>
@@ -2566,8 +3247,11 @@
       <c r="D77" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>36</v>
       </c>
@@ -2580,8 +3264,11 @@
       <c r="D78" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>36</v>
       </c>
@@ -2594,8 +3281,11 @@
       <c r="D79" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>36</v>
       </c>
@@ -2608,8 +3298,11 @@
       <c r="D80" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
@@ -2622,8 +3315,11 @@
       <c r="D81" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +3332,11 @@
       <c r="D82" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>37</v>
       </c>
@@ -2650,8 +3349,11 @@
       <c r="D83" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
@@ -2664,8 +3366,11 @@
       <c r="D84" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>38</v>
       </c>
@@ -2678,8 +3383,11 @@
       <c r="D85" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>38</v>
       </c>
@@ -2692,8 +3400,11 @@
       <c r="D86" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F86" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
@@ -2706,8 +3417,11 @@
       <c r="D87" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>15</v>
       </c>
@@ -2720,8 +3434,11 @@
       <c r="D88" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
@@ -2734,8 +3451,11 @@
       <c r="D89" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F89" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>27</v>
       </c>
@@ -2748,8 +3468,11 @@
       <c r="D90" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F90" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
@@ -2762,8 +3485,11 @@
       <c r="D91" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F91" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>39</v>
       </c>
@@ -2776,8 +3502,11 @@
       <c r="D92" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>40</v>
       </c>
@@ -2790,8 +3519,11 @@
       <c r="D93" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
@@ -2804,8 +3536,11 @@
       <c r="D94" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>37</v>
       </c>
@@ -2818,8 +3553,11 @@
       <c r="D95" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>37</v>
       </c>
@@ -2832,8 +3570,11 @@
       <c r="D96" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>41</v>
       </c>
@@ -2846,8 +3587,11 @@
       <c r="D97" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>41</v>
       </c>
@@ -2860,8 +3604,11 @@
       <c r="D98" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>34</v>
       </c>
@@ -2874,8 +3621,11 @@
       <c r="D99" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>28</v>
       </c>
@@ -2888,8 +3638,11 @@
       <c r="D100" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>42</v>
       </c>
@@ -2902,8 +3655,11 @@
       <c r="D101" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>16</v>
       </c>
@@ -2916,8 +3672,11 @@
       <c r="D102" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>19</v>
       </c>
@@ -2930,8 +3689,11 @@
       <c r="D103" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -2944,8 +3706,11 @@
       <c r="D104" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>40</v>
       </c>
@@ -2958,8 +3723,11 @@
       <c r="D105" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>42</v>
       </c>
@@ -2972,8 +3740,11 @@
       <c r="D106" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>36</v>
       </c>
@@ -2986,8 +3757,11 @@
       <c r="D107" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>30</v>
       </c>
@@ -3000,8 +3774,11 @@
       <c r="D108" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>26</v>
       </c>
@@ -3014,8 +3791,11 @@
       <c r="D109" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>28</v>
       </c>
@@ -3028,8 +3808,11 @@
       <c r="D110" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
@@ -3042,8 +3825,11 @@
       <c r="D111" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
@@ -3056,8 +3842,11 @@
       <c r="D112" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>30</v>
       </c>
@@ -3070,8 +3859,11 @@
       <c r="D113" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>43</v>
       </c>
@@ -3084,8 +3876,11 @@
       <c r="D114" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>37</v>
       </c>
@@ -3098,8 +3893,11 @@
       <c r="D115" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>44</v>
       </c>
@@ -3112,8 +3910,11 @@
       <c r="D116" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
@@ -3126,8 +3927,11 @@
       <c r="D117" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>10</v>
       </c>
@@ -3140,8 +3944,11 @@
       <c r="D118" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>25</v>
       </c>
@@ -3154,8 +3961,11 @@
       <c r="D119" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>4</v>
       </c>
@@ -3168,8 +3978,11 @@
       <c r="D120" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>31</v>
       </c>
@@ -3182,8 +3995,11 @@
       <c r="D121" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F121" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
@@ -3196,8 +4012,11 @@
       <c r="D122" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F122" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>1</v>
       </c>
@@ -3210,8 +4029,11 @@
       <c r="D123" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F123" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>31</v>
       </c>
@@ -3224,8 +4046,11 @@
       <c r="D124" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F124" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>45</v>
       </c>
@@ -3238,8 +4063,11 @@
       <c r="D125" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F125" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>31</v>
       </c>
@@ -3252,8 +4080,11 @@
       <c r="D126" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>31</v>
       </c>
@@ -3266,8 +4097,11 @@
       <c r="D127" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
@@ -3280,8 +4114,11 @@
       <c r="D128" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>37</v>
       </c>
@@ -3294,8 +4131,11 @@
       <c r="D129" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>46</v>
       </c>
@@ -3308,8 +4148,11 @@
       <c r="D130" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F130" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>46</v>
       </c>
@@ -3322,8 +4165,11 @@
       <c r="D131" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F131" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
@@ -3336,8 +4182,11 @@
       <c r="D132" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F132" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>35</v>
       </c>
@@ -3350,8 +4199,11 @@
       <c r="D133" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F133" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>35</v>
       </c>
@@ -3364,8 +4216,11 @@
       <c r="D134" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F134" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>24</v>
       </c>
@@ -3378,8 +4233,11 @@
       <c r="D135" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F135" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>39</v>
       </c>
@@ -3392,8 +4250,11 @@
       <c r="D136" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F136" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>6</v>
       </c>
@@ -3406,8 +4267,11 @@
       <c r="D137" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F137" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>35</v>
       </c>
@@ -3420,8 +4284,11 @@
       <c r="D138" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F138" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>13</v>
       </c>
@@ -3434,8 +4301,11 @@
       <c r="D139" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F139" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>17</v>
       </c>
@@ -3448,8 +4318,11 @@
       <c r="D140" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F140" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>16</v>
       </c>
@@ -3462,8 +4335,11 @@
       <c r="D141" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F141" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>46</v>
       </c>
@@ -3476,8 +4352,11 @@
       <c r="D142" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F142" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>47</v>
       </c>
@@ -3490,8 +4369,11 @@
       <c r="D143" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F143" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>25</v>
       </c>
@@ -3504,8 +4386,11 @@
       <c r="D144" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F144" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>34</v>
       </c>
@@ -3518,8 +4403,11 @@
       <c r="D145" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F145" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>20</v>
       </c>
@@ -3532,8 +4420,11 @@
       <c r="D146" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F146" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>26</v>
       </c>
@@ -3546,8 +4437,11 @@
       <c r="D147" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F147" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>20</v>
       </c>
@@ -3560,8 +4454,11 @@
       <c r="D148" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F148" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>39</v>
       </c>
@@ -3574,8 +4471,11 @@
       <c r="D149" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F149" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>12</v>
       </c>
@@ -3588,8 +4488,11 @@
       <c r="D150" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F150" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>25</v>
       </c>
@@ -3601,6 +4504,9 @@
       </c>
       <c r="D151" t="s">
         <v>349</v>
+      </c>
+      <c r="F151" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/123.xlsx
+++ b/123.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="350">
   <si>
     <t>SLIPNO</t>
   </si>
@@ -1066,459 +1066,6 @@
   </si>
   <si>
     <t>c150</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>aaa1</t>
-  </si>
-  <si>
-    <t>aaa2</t>
-  </si>
-  <si>
-    <t>aaa3</t>
-  </si>
-  <si>
-    <t>aaa4</t>
-  </si>
-  <si>
-    <t>aaa5</t>
-  </si>
-  <si>
-    <t>aaa6</t>
-  </si>
-  <si>
-    <t>aaa7</t>
-  </si>
-  <si>
-    <t>aaa8</t>
-  </si>
-  <si>
-    <t>aaa9</t>
-  </si>
-  <si>
-    <t>aaa10</t>
-  </si>
-  <si>
-    <t>aaa11</t>
-  </si>
-  <si>
-    <t>aaa12</t>
-  </si>
-  <si>
-    <t>aaa13</t>
-  </si>
-  <si>
-    <t>aaa14</t>
-  </si>
-  <si>
-    <t>aaa15</t>
-  </si>
-  <si>
-    <t>aaa16</t>
-  </si>
-  <si>
-    <t>aaa17</t>
-  </si>
-  <si>
-    <t>aaa18</t>
-  </si>
-  <si>
-    <t>aaa19</t>
-  </si>
-  <si>
-    <t>aaa20</t>
-  </si>
-  <si>
-    <t>aaa21</t>
-  </si>
-  <si>
-    <t>aaa22</t>
-  </si>
-  <si>
-    <t>aaa23</t>
-  </si>
-  <si>
-    <t>aaa24</t>
-  </si>
-  <si>
-    <t>aaa25</t>
-  </si>
-  <si>
-    <t>aaa26</t>
-  </si>
-  <si>
-    <t>aaa27</t>
-  </si>
-  <si>
-    <t>aaa28</t>
-  </si>
-  <si>
-    <t>aaa29</t>
-  </si>
-  <si>
-    <t>aaa30</t>
-  </si>
-  <si>
-    <t>aaa31</t>
-  </si>
-  <si>
-    <t>aaa32</t>
-  </si>
-  <si>
-    <t>aaa33</t>
-  </si>
-  <si>
-    <t>aaa34</t>
-  </si>
-  <si>
-    <t>aaa35</t>
-  </si>
-  <si>
-    <t>aaa36</t>
-  </si>
-  <si>
-    <t>aaa37</t>
-  </si>
-  <si>
-    <t>aaa38</t>
-  </si>
-  <si>
-    <t>aaa39</t>
-  </si>
-  <si>
-    <t>aaa40</t>
-  </si>
-  <si>
-    <t>aaa41</t>
-  </si>
-  <si>
-    <t>aaa42</t>
-  </si>
-  <si>
-    <t>aaa43</t>
-  </si>
-  <si>
-    <t>aaa44</t>
-  </si>
-  <si>
-    <t>aaa45</t>
-  </si>
-  <si>
-    <t>aaa46</t>
-  </si>
-  <si>
-    <t>aaa47</t>
-  </si>
-  <si>
-    <t>aaa48</t>
-  </si>
-  <si>
-    <t>aaa49</t>
-  </si>
-  <si>
-    <t>aaa50</t>
-  </si>
-  <si>
-    <t>aaa51</t>
-  </si>
-  <si>
-    <t>aaa52</t>
-  </si>
-  <si>
-    <t>aaa53</t>
-  </si>
-  <si>
-    <t>aaa54</t>
-  </si>
-  <si>
-    <t>aaa55</t>
-  </si>
-  <si>
-    <t>aaa56</t>
-  </si>
-  <si>
-    <t>aaa57</t>
-  </si>
-  <si>
-    <t>aaa58</t>
-  </si>
-  <si>
-    <t>aaa59</t>
-  </si>
-  <si>
-    <t>aaa60</t>
-  </si>
-  <si>
-    <t>aaa61</t>
-  </si>
-  <si>
-    <t>aaa62</t>
-  </si>
-  <si>
-    <t>aaa63</t>
-  </si>
-  <si>
-    <t>aaa64</t>
-  </si>
-  <si>
-    <t>aaa65</t>
-  </si>
-  <si>
-    <t>aaa66</t>
-  </si>
-  <si>
-    <t>aaa67</t>
-  </si>
-  <si>
-    <t>aaa68</t>
-  </si>
-  <si>
-    <t>aaa69</t>
-  </si>
-  <si>
-    <t>aaa70</t>
-  </si>
-  <si>
-    <t>aaa71</t>
-  </si>
-  <si>
-    <t>aaa72</t>
-  </si>
-  <si>
-    <t>aaa73</t>
-  </si>
-  <si>
-    <t>aaa74</t>
-  </si>
-  <si>
-    <t>aaa75</t>
-  </si>
-  <si>
-    <t>aaa76</t>
-  </si>
-  <si>
-    <t>aaa77</t>
-  </si>
-  <si>
-    <t>aaa78</t>
-  </si>
-  <si>
-    <t>aaa79</t>
-  </si>
-  <si>
-    <t>aaa80</t>
-  </si>
-  <si>
-    <t>aaa81</t>
-  </si>
-  <si>
-    <t>aaa82</t>
-  </si>
-  <si>
-    <t>aaa83</t>
-  </si>
-  <si>
-    <t>aaa84</t>
-  </si>
-  <si>
-    <t>aaa85</t>
-  </si>
-  <si>
-    <t>aaa86</t>
-  </si>
-  <si>
-    <t>aaa87</t>
-  </si>
-  <si>
-    <t>aaa88</t>
-  </si>
-  <si>
-    <t>aaa89</t>
-  </si>
-  <si>
-    <t>aaa90</t>
-  </si>
-  <si>
-    <t>aaa91</t>
-  </si>
-  <si>
-    <t>aaa92</t>
-  </si>
-  <si>
-    <t>aaa93</t>
-  </si>
-  <si>
-    <t>aaa94</t>
-  </si>
-  <si>
-    <t>aaa95</t>
-  </si>
-  <si>
-    <t>aaa96</t>
-  </si>
-  <si>
-    <t>aaa97</t>
-  </si>
-  <si>
-    <t>aaa98</t>
-  </si>
-  <si>
-    <t>aaa99</t>
-  </si>
-  <si>
-    <t>aaa100</t>
-  </si>
-  <si>
-    <t>aaa101</t>
-  </si>
-  <si>
-    <t>aaa102</t>
-  </si>
-  <si>
-    <t>aaa103</t>
-  </si>
-  <si>
-    <t>aaa104</t>
-  </si>
-  <si>
-    <t>aaa105</t>
-  </si>
-  <si>
-    <t>aaa106</t>
-  </si>
-  <si>
-    <t>aaa107</t>
-  </si>
-  <si>
-    <t>aaa108</t>
-  </si>
-  <si>
-    <t>aaa109</t>
-  </si>
-  <si>
-    <t>aaa110</t>
-  </si>
-  <si>
-    <t>aaa111</t>
-  </si>
-  <si>
-    <t>aaa112</t>
-  </si>
-  <si>
-    <t>aaa113</t>
-  </si>
-  <si>
-    <t>aaa114</t>
-  </si>
-  <si>
-    <t>aaa115</t>
-  </si>
-  <si>
-    <t>aaa116</t>
-  </si>
-  <si>
-    <t>aaa117</t>
-  </si>
-  <si>
-    <t>aaa118</t>
-  </si>
-  <si>
-    <t>aaa119</t>
-  </si>
-  <si>
-    <t>aaa120</t>
-  </si>
-  <si>
-    <t>aaa121</t>
-  </si>
-  <si>
-    <t>aaa122</t>
-  </si>
-  <si>
-    <t>aaa123</t>
-  </si>
-  <si>
-    <t>aaa124</t>
-  </si>
-  <si>
-    <t>aaa125</t>
-  </si>
-  <si>
-    <t>aaa126</t>
-  </si>
-  <si>
-    <t>aaa127</t>
-  </si>
-  <si>
-    <t>aaa128</t>
-  </si>
-  <si>
-    <t>aaa129</t>
-  </si>
-  <si>
-    <t>aaa130</t>
-  </si>
-  <si>
-    <t>aaa131</t>
-  </si>
-  <si>
-    <t>aaa132</t>
-  </si>
-  <si>
-    <t>aaa133</t>
-  </si>
-  <si>
-    <t>aaa134</t>
-  </si>
-  <si>
-    <t>aaa135</t>
-  </si>
-  <si>
-    <t>aaa136</t>
-  </si>
-  <si>
-    <t>aaa137</t>
-  </si>
-  <si>
-    <t>aaa138</t>
-  </si>
-  <si>
-    <t>aaa139</t>
-  </si>
-  <si>
-    <t>aaa140</t>
-  </si>
-  <si>
-    <t>aaa141</t>
-  </si>
-  <si>
-    <t>aaa142</t>
-  </si>
-  <si>
-    <t>aaa143</t>
-  </si>
-  <si>
-    <t>aaa144</t>
-  </si>
-  <si>
-    <t>aaa145</t>
-  </si>
-  <si>
-    <t>aaa146</t>
-  </si>
-  <si>
-    <t>aaa147</t>
-  </si>
-  <si>
-    <t>aaa148</t>
-  </si>
-  <si>
-    <t>aaa149</t>
-  </si>
-  <si>
-    <t>aaa150</t>
   </si>
 </sst>
 </file>
@@ -1871,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F151"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,7 +1429,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1898,11 +1445,8 @@
       <c r="E1">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1918,11 +1462,8 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1938,11 +1479,8 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1958,11 +1496,8 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1978,11 +1513,8 @@
       <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1998,11 +1530,8 @@
       <c r="E6">
         <v>7</v>
       </c>
-      <c r="F6" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -2018,11 +1547,8 @@
       <c r="E7">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -2038,11 +1564,8 @@
       <c r="E8">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -2058,11 +1581,8 @@
       <c r="E9">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2078,11 +1598,8 @@
       <c r="E10">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2098,11 +1615,8 @@
       <c r="E11">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2118,11 +1632,8 @@
       <c r="E12">
         <v>13</v>
       </c>
-      <c r="F12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
@@ -2138,11 +1649,8 @@
       <c r="E13">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -2158,11 +1666,8 @@
       <c r="E14">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -2178,11 +1683,8 @@
       <c r="E15">
         <v>16</v>
       </c>
-      <c r="F15" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -2198,11 +1700,8 @@
       <c r="E16">
         <v>17</v>
       </c>
-      <c r="F16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2218,11 +1717,8 @@
       <c r="E17">
         <v>18</v>
       </c>
-      <c r="F17" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
@@ -2238,11 +1734,8 @@
       <c r="E18">
         <v>19</v>
       </c>
-      <c r="F18" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2258,11 +1751,8 @@
       <c r="E19">
         <v>20</v>
       </c>
-      <c r="F19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
@@ -2278,11 +1768,8 @@
       <c r="E20">
         <v>21</v>
       </c>
-      <c r="F20" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
@@ -2295,11 +1782,8 @@
       <c r="D21" t="s">
         <v>219</v>
       </c>
-      <c r="F21" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -2312,11 +1796,8 @@
       <c r="D22" t="s">
         <v>220</v>
       </c>
-      <c r="F22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2329,11 +1810,8 @@
       <c r="D23" t="s">
         <v>221</v>
       </c>
-      <c r="F23" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -2346,11 +1824,8 @@
       <c r="D24" t="s">
         <v>222</v>
       </c>
-      <c r="F24" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -2363,11 +1838,8 @@
       <c r="D25" t="s">
         <v>223</v>
       </c>
-      <c r="F25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
@@ -2380,11 +1852,8 @@
       <c r="D26" t="s">
         <v>224</v>
       </c>
-      <c r="F26" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -2397,11 +1866,8 @@
       <c r="D27" t="s">
         <v>225</v>
       </c>
-      <c r="F27" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2414,11 +1880,8 @@
       <c r="D28" t="s">
         <v>226</v>
       </c>
-      <c r="F28" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
@@ -2431,11 +1894,8 @@
       <c r="D29" t="s">
         <v>227</v>
       </c>
-      <c r="F29" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2448,11 +1908,8 @@
       <c r="D30" t="s">
         <v>228</v>
       </c>
-      <c r="F30" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2465,11 +1922,8 @@
       <c r="D31" t="s">
         <v>229</v>
       </c>
-      <c r="F31" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2482,11 +1936,8 @@
       <c r="D32" t="s">
         <v>230</v>
       </c>
-      <c r="F32" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -2499,11 +1950,8 @@
       <c r="D33" t="s">
         <v>231</v>
       </c>
-      <c r="F33" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -2516,11 +1964,8 @@
       <c r="D34" t="s">
         <v>232</v>
       </c>
-      <c r="F34" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>17</v>
       </c>
@@ -2533,11 +1978,8 @@
       <c r="D35" t="s">
         <v>233</v>
       </c>
-      <c r="F35" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>23</v>
       </c>
@@ -2550,11 +1992,8 @@
       <c r="D36" t="s">
         <v>234</v>
       </c>
-      <c r="F36" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -2567,11 +2006,8 @@
       <c r="D37" t="s">
         <v>235</v>
       </c>
-      <c r="F37" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>24</v>
       </c>
@@ -2584,11 +2020,8 @@
       <c r="D38" t="s">
         <v>236</v>
       </c>
-      <c r="F38" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>3</v>
       </c>
@@ -2601,11 +2034,8 @@
       <c r="D39" t="s">
         <v>237</v>
       </c>
-      <c r="F39" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -2618,11 +2048,8 @@
       <c r="D40" t="s">
         <v>238</v>
       </c>
-      <c r="F40" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -2635,11 +2062,8 @@
       <c r="D41" t="s">
         <v>239</v>
       </c>
-      <c r="F41" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
@@ -2652,11 +2076,8 @@
       <c r="D42" t="s">
         <v>240</v>
       </c>
-      <c r="F42" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
@@ -2669,11 +2090,8 @@
       <c r="D43" t="s">
         <v>241</v>
       </c>
-      <c r="F43" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>18</v>
       </c>
@@ -2686,11 +2104,8 @@
       <c r="D44" t="s">
         <v>242</v>
       </c>
-      <c r="F44" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>13</v>
       </c>
@@ -2703,11 +2118,8 @@
       <c r="D45" t="s">
         <v>243</v>
       </c>
-      <c r="F45" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>22</v>
       </c>
@@ -2720,11 +2132,8 @@
       <c r="D46" t="s">
         <v>244</v>
       </c>
-      <c r="F46" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>17</v>
       </c>
@@ -2737,11 +2146,8 @@
       <c r="D47" t="s">
         <v>245</v>
       </c>
-      <c r="F47" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>22</v>
       </c>
@@ -2754,11 +2160,8 @@
       <c r="D48" t="s">
         <v>246</v>
       </c>
-      <c r="F48" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
@@ -2771,11 +2174,8 @@
       <c r="D49" t="s">
         <v>247</v>
       </c>
-      <c r="F49" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>27</v>
       </c>
@@ -2788,11 +2188,8 @@
       <c r="D50" t="s">
         <v>248</v>
       </c>
-      <c r="F50" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>28</v>
       </c>
@@ -2805,11 +2202,8 @@
       <c r="D51" t="s">
         <v>249</v>
       </c>
-      <c r="F51" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>28</v>
       </c>
@@ -2822,11 +2216,8 @@
       <c r="D52" t="s">
         <v>250</v>
       </c>
-      <c r="F52" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>18</v>
       </c>
@@ -2839,11 +2230,8 @@
       <c r="D53" t="s">
         <v>251</v>
       </c>
-      <c r="F53" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>29</v>
       </c>
@@ -2856,11 +2244,8 @@
       <c r="D54" t="s">
         <v>252</v>
       </c>
-      <c r="F54" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>25</v>
       </c>
@@ -2873,11 +2258,8 @@
       <c r="D55" t="s">
         <v>253</v>
       </c>
-      <c r="F55" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -2890,11 +2272,8 @@
       <c r="D56" t="s">
         <v>254</v>
       </c>
-      <c r="F56" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>3</v>
       </c>
@@ -2907,11 +2286,8 @@
       <c r="D57" t="s">
         <v>255</v>
       </c>
-      <c r="F57" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>3</v>
       </c>
@@ -2924,11 +2300,8 @@
       <c r="D58" t="s">
         <v>256</v>
       </c>
-      <c r="F58" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>31</v>
       </c>
@@ -2941,11 +2314,8 @@
       <c r="D59" t="s">
         <v>257</v>
       </c>
-      <c r="F59" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>28</v>
       </c>
@@ -2958,11 +2328,8 @@
       <c r="D60" t="s">
         <v>258</v>
       </c>
-      <c r="F60" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>27</v>
       </c>
@@ -2975,11 +2342,8 @@
       <c r="D61" t="s">
         <v>259</v>
       </c>
-      <c r="F61" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>32</v>
       </c>
@@ -2992,11 +2356,8 @@
       <c r="D62" t="s">
         <v>260</v>
       </c>
-      <c r="F62" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>27</v>
       </c>
@@ -3009,11 +2370,8 @@
       <c r="D63" t="s">
         <v>261</v>
       </c>
-      <c r="F63" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>33</v>
       </c>
@@ -3026,11 +2384,8 @@
       <c r="D64" t="s">
         <v>262</v>
       </c>
-      <c r="F64" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
@@ -3043,11 +2398,8 @@
       <c r="D65" t="s">
         <v>263</v>
       </c>
-      <c r="F65" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>24</v>
       </c>
@@ -3060,11 +2412,8 @@
       <c r="D66" t="s">
         <v>264</v>
       </c>
-      <c r="F66" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>8</v>
       </c>
@@ -3077,11 +2426,8 @@
       <c r="D67" t="s">
         <v>265</v>
       </c>
-      <c r="F67" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
@@ -3094,11 +2440,8 @@
       <c r="D68" t="s">
         <v>266</v>
       </c>
-      <c r="F68" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
@@ -3111,11 +2454,8 @@
       <c r="D69" t="s">
         <v>267</v>
       </c>
-      <c r="F69" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -3128,11 +2468,8 @@
       <c r="D70" t="s">
         <v>268</v>
       </c>
-      <c r="F70" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>30</v>
       </c>
@@ -3145,11 +2482,8 @@
       <c r="D71" t="s">
         <v>269</v>
       </c>
-      <c r="F71" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>34</v>
       </c>
@@ -3162,11 +2496,8 @@
       <c r="D72" t="s">
         <v>270</v>
       </c>
-      <c r="F72" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
@@ -3179,11 +2510,8 @@
       <c r="D73" t="s">
         <v>271</v>
       </c>
-      <c r="F73" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>35</v>
       </c>
@@ -3196,11 +2524,8 @@
       <c r="D74" t="s">
         <v>272</v>
       </c>
-      <c r="F74" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
@@ -3213,11 +2538,8 @@
       <c r="D75" t="s">
         <v>273</v>
       </c>
-      <c r="F75" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>35</v>
       </c>
@@ -3230,11 +2552,8 @@
       <c r="D76" t="s">
         <v>274</v>
       </c>
-      <c r="F76" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>26</v>
       </c>
@@ -3247,11 +2566,8 @@
       <c r="D77" t="s">
         <v>275</v>
       </c>
-      <c r="F77" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>36</v>
       </c>
@@ -3264,11 +2580,8 @@
       <c r="D78" t="s">
         <v>276</v>
       </c>
-      <c r="F78" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>36</v>
       </c>
@@ -3281,11 +2594,8 @@
       <c r="D79" t="s">
         <v>277</v>
       </c>
-      <c r="F79" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>36</v>
       </c>
@@ -3298,11 +2608,8 @@
       <c r="D80" t="s">
         <v>278</v>
       </c>
-      <c r="F80" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>37</v>
       </c>
@@ -3315,11 +2622,8 @@
       <c r="D81" t="s">
         <v>279</v>
       </c>
-      <c r="F81" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>37</v>
       </c>
@@ -3332,11 +2636,8 @@
       <c r="D82" t="s">
         <v>280</v>
       </c>
-      <c r="F82" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>37</v>
       </c>
@@ -3349,11 +2650,8 @@
       <c r="D83" t="s">
         <v>281</v>
       </c>
-      <c r="F83" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
@@ -3366,11 +2664,8 @@
       <c r="D84" t="s">
         <v>282</v>
       </c>
-      <c r="F84" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>38</v>
       </c>
@@ -3383,11 +2678,8 @@
       <c r="D85" t="s">
         <v>283</v>
       </c>
-      <c r="F85" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>38</v>
       </c>
@@ -3400,11 +2692,8 @@
       <c r="D86" t="s">
         <v>284</v>
       </c>
-      <c r="F86" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>37</v>
       </c>
@@ -3417,11 +2706,8 @@
       <c r="D87" t="s">
         <v>285</v>
       </c>
-      <c r="F87" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>15</v>
       </c>
@@ -3434,11 +2720,8 @@
       <c r="D88" t="s">
         <v>286</v>
       </c>
-      <c r="F88" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
@@ -3451,11 +2734,8 @@
       <c r="D89" t="s">
         <v>287</v>
       </c>
-      <c r="F89" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>27</v>
       </c>
@@ -3468,11 +2748,8 @@
       <c r="D90" t="s">
         <v>288</v>
       </c>
-      <c r="F90" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
@@ -3485,11 +2762,8 @@
       <c r="D91" t="s">
         <v>289</v>
       </c>
-      <c r="F91" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>39</v>
       </c>
@@ -3502,11 +2776,8 @@
       <c r="D92" t="s">
         <v>290</v>
       </c>
-      <c r="F92" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>40</v>
       </c>
@@ -3519,11 +2790,8 @@
       <c r="D93" t="s">
         <v>291</v>
       </c>
-      <c r="F93" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>40</v>
       </c>
@@ -3536,11 +2804,8 @@
       <c r="D94" t="s">
         <v>292</v>
       </c>
-      <c r="F94" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>37</v>
       </c>
@@ -3553,11 +2818,8 @@
       <c r="D95" t="s">
         <v>293</v>
       </c>
-      <c r="F95" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>37</v>
       </c>
@@ -3570,11 +2832,8 @@
       <c r="D96" t="s">
         <v>294</v>
       </c>
-      <c r="F96" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>41</v>
       </c>
@@ -3587,11 +2846,8 @@
       <c r="D97" t="s">
         <v>295</v>
       </c>
-      <c r="F97" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>41</v>
       </c>
@@ -3604,11 +2860,8 @@
       <c r="D98" t="s">
         <v>296</v>
       </c>
-      <c r="F98" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>34</v>
       </c>
@@ -3621,11 +2874,8 @@
       <c r="D99" t="s">
         <v>297</v>
       </c>
-      <c r="F99" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>28</v>
       </c>
@@ -3638,11 +2888,8 @@
       <c r="D100" t="s">
         <v>298</v>
       </c>
-      <c r="F100" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>42</v>
       </c>
@@ -3655,11 +2902,8 @@
       <c r="D101" t="s">
         <v>299</v>
       </c>
-      <c r="F101" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>16</v>
       </c>
@@ -3672,11 +2916,8 @@
       <c r="D102" t="s">
         <v>300</v>
       </c>
-      <c r="F102" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>19</v>
       </c>
@@ -3689,11 +2930,8 @@
       <c r="D103" t="s">
         <v>301</v>
       </c>
-      <c r="F103" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>41</v>
       </c>
@@ -3706,11 +2944,8 @@
       <c r="D104" t="s">
         <v>302</v>
       </c>
-      <c r="F104" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>40</v>
       </c>
@@ -3723,11 +2958,8 @@
       <c r="D105" t="s">
         <v>303</v>
       </c>
-      <c r="F105" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>42</v>
       </c>
@@ -3740,11 +2972,8 @@
       <c r="D106" t="s">
         <v>304</v>
       </c>
-      <c r="F106" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>36</v>
       </c>
@@ -3757,11 +2986,8 @@
       <c r="D107" t="s">
         <v>305</v>
       </c>
-      <c r="F107" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>30</v>
       </c>
@@ -3774,11 +3000,8 @@
       <c r="D108" t="s">
         <v>306</v>
       </c>
-      <c r="F108" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>26</v>
       </c>
@@ -3791,11 +3014,8 @@
       <c r="D109" t="s">
         <v>307</v>
       </c>
-      <c r="F109" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>28</v>
       </c>
@@ -3808,11 +3028,8 @@
       <c r="D110" t="s">
         <v>308</v>
       </c>
-      <c r="F110" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>11</v>
       </c>
@@ -3825,11 +3042,8 @@
       <c r="D111" t="s">
         <v>309</v>
       </c>
-      <c r="F111" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
@@ -3842,11 +3056,8 @@
       <c r="D112" t="s">
         <v>310</v>
       </c>
-      <c r="F112" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>30</v>
       </c>
@@ -3859,11 +3070,8 @@
       <c r="D113" t="s">
         <v>311</v>
       </c>
-      <c r="F113" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>43</v>
       </c>
@@ -3876,11 +3084,8 @@
       <c r="D114" t="s">
         <v>312</v>
       </c>
-      <c r="F114" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>37</v>
       </c>
@@ -3893,11 +3098,8 @@
       <c r="D115" t="s">
         <v>313</v>
       </c>
-      <c r="F115" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>44</v>
       </c>
@@ -3910,11 +3112,8 @@
       <c r="D116" t="s">
         <v>314</v>
       </c>
-      <c r="F116" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>44</v>
       </c>
@@ -3927,11 +3126,8 @@
       <c r="D117" t="s">
         <v>315</v>
       </c>
-      <c r="F117" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>10</v>
       </c>
@@ -3944,11 +3140,8 @@
       <c r="D118" t="s">
         <v>316</v>
       </c>
-      <c r="F118" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>25</v>
       </c>
@@ -3961,11 +3154,8 @@
       <c r="D119" t="s">
         <v>317</v>
       </c>
-      <c r="F119" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>4</v>
       </c>
@@ -3978,11 +3168,8 @@
       <c r="D120" t="s">
         <v>318</v>
       </c>
-      <c r="F120" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>31</v>
       </c>
@@ -3995,11 +3182,8 @@
       <c r="D121" t="s">
         <v>319</v>
       </c>
-      <c r="F121" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>9</v>
       </c>
@@ -4012,11 +3196,8 @@
       <c r="D122" t="s">
         <v>320</v>
       </c>
-      <c r="F122" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>1</v>
       </c>
@@ -4029,11 +3210,8 @@
       <c r="D123" t="s">
         <v>321</v>
       </c>
-      <c r="F123" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>31</v>
       </c>
@@ -4046,11 +3224,8 @@
       <c r="D124" t="s">
         <v>322</v>
       </c>
-      <c r="F124" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>45</v>
       </c>
@@ -4063,11 +3238,8 @@
       <c r="D125" t="s">
         <v>323</v>
       </c>
-      <c r="F125" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>31</v>
       </c>
@@ -4080,11 +3252,8 @@
       <c r="D126" t="s">
         <v>324</v>
       </c>
-      <c r="F126" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>31</v>
       </c>
@@ -4097,11 +3266,8 @@
       <c r="D127" t="s">
         <v>325</v>
       </c>
-      <c r="F127" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>12</v>
       </c>
@@ -4114,11 +3280,8 @@
       <c r="D128" t="s">
         <v>326</v>
       </c>
-      <c r="F128" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>37</v>
       </c>
@@ -4131,11 +3294,8 @@
       <c r="D129" t="s">
         <v>327</v>
       </c>
-      <c r="F129" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>46</v>
       </c>
@@ -4148,11 +3308,8 @@
       <c r="D130" t="s">
         <v>328</v>
       </c>
-      <c r="F130" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>46</v>
       </c>
@@ -4165,11 +3322,8 @@
       <c r="D131" t="s">
         <v>329</v>
       </c>
-      <c r="F131" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
@@ -4182,11 +3336,8 @@
       <c r="D132" t="s">
         <v>330</v>
       </c>
-      <c r="F132" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>35</v>
       </c>
@@ -4199,11 +3350,8 @@
       <c r="D133" t="s">
         <v>331</v>
       </c>
-      <c r="F133" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>35</v>
       </c>
@@ -4216,11 +3364,8 @@
       <c r="D134" t="s">
         <v>332</v>
       </c>
-      <c r="F134" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>24</v>
       </c>
@@ -4233,11 +3378,8 @@
       <c r="D135" t="s">
         <v>333</v>
       </c>
-      <c r="F135" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>39</v>
       </c>
@@ -4250,11 +3392,8 @@
       <c r="D136" t="s">
         <v>334</v>
       </c>
-      <c r="F136" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>6</v>
       </c>
@@ -4267,11 +3406,8 @@
       <c r="D137" t="s">
         <v>335</v>
       </c>
-      <c r="F137" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>35</v>
       </c>
@@ -4284,11 +3420,8 @@
       <c r="D138" t="s">
         <v>336</v>
       </c>
-      <c r="F138" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>13</v>
       </c>
@@ -4301,11 +3434,8 @@
       <c r="D139" t="s">
         <v>337</v>
       </c>
-      <c r="F139" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>17</v>
       </c>
@@ -4318,11 +3448,8 @@
       <c r="D140" t="s">
         <v>338</v>
       </c>
-      <c r="F140" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>16</v>
       </c>
@@ -4335,11 +3462,8 @@
       <c r="D141" t="s">
         <v>339</v>
       </c>
-      <c r="F141" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>46</v>
       </c>
@@ -4352,11 +3476,8 @@
       <c r="D142" t="s">
         <v>340</v>
       </c>
-      <c r="F142" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>47</v>
       </c>
@@ -4369,11 +3490,8 @@
       <c r="D143" t="s">
         <v>341</v>
       </c>
-      <c r="F143" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>25</v>
       </c>
@@ -4386,11 +3504,8 @@
       <c r="D144" t="s">
         <v>342</v>
       </c>
-      <c r="F144" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>34</v>
       </c>
@@ -4403,11 +3518,8 @@
       <c r="D145" t="s">
         <v>343</v>
       </c>
-      <c r="F145" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>20</v>
       </c>
@@ -4420,11 +3532,8 @@
       <c r="D146" t="s">
         <v>344</v>
       </c>
-      <c r="F146" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>26</v>
       </c>
@@ -4437,11 +3546,8 @@
       <c r="D147" t="s">
         <v>345</v>
       </c>
-      <c r="F147" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>20</v>
       </c>
@@ -4454,11 +3560,8 @@
       <c r="D148" t="s">
         <v>346</v>
       </c>
-      <c r="F148" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>39</v>
       </c>
@@ -4471,11 +3574,8 @@
       <c r="D149" t="s">
         <v>347</v>
       </c>
-      <c r="F149" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>12</v>
       </c>
@@ -4488,11 +3588,8 @@
       <c r="D150" t="s">
         <v>348</v>
       </c>
-      <c r="F150" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>25</v>
       </c>
@@ -4504,9 +3601,6 @@
       </c>
       <c r="D151" t="s">
         <v>349</v>
-      </c>
-      <c r="F151" t="s">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
